--- a/Experiments/EXP_LLM_schemalink.xlsx
+++ b/Experiments/EXP_LLM_schemalink.xlsx
@@ -1079,7 +1079,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['mtd1_amt_point_topup_auto_cardx', 'mtd1_amt_point_topup_auto_wealth']</t>
+          <t>['mtd1_amt_point_topup_auto_cardx', 'mtd1_amt_point_topup_auto_wealth', 'mtd1_amt_point_topup_extnl']</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['mtd1_amt_point_topup_auto_cardx', 'mtd1_amt_point_topup_auto_wealth']</t>
+          <t>['mtd1_amt_point_topup_auto_cardx', 'mtd1_amt_point_topup_auto_wealth', 'mtd1_amt_point_topup_extnl']</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['ncust_pointx_visit']</t>
+          <t>['ncust_pointx_visit', 'mtd1_ncust_pointx_visit']</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['mtd1_rate_point_per_baht_pay_pyw']</t>
+          <t>['rate_point_per_baht_pay_pyw']</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1250,15 +1250,13 @@
         <v>0.28</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>ZeroDivisionError</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="17">
@@ -1651,7 +1649,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['ncust_pointx_visit', 'ncust_pointx_visit']</t>
+          <t>['ncust_pointx_visit', 'mtd1_ncust_pointx_visit']</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1667,10 +1665,10 @@
         <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>0.66</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -1701,7 +1699,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['mtd1_amt_point_pay_pyw', 'amt_point_pay_pyw']</t>
+          <t>['mtd1_n_purchase_pyw']</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1805,7 +1803,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['amt_point_pay_pyw_rbh', 'mtd1_amt_point_pay_pyw_rbh']</t>
+          <t>['n_purchase_pyw_rbh', 'mtd1_n_purchase_pyw_rbh']</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1820,15 +1818,13 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>ZeroDivisionError</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="28">
@@ -1859,7 +1855,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['n_topup_point_auto_cardx', 'n_topup_point_auto_wealth', 'n_topup_point_extnl']</t>
+          <t>['n_topup_point_auto_cardx', 'n_topup_point_auto_wealth', 'n_topup_point_extnl', 'mtd1_n_topup_point_auto_cardx', 'mtd1_n_topup_point_auto_wealth', 'mtd1_n_topup_point_extnl']</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1875,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29">
@@ -1909,7 +1905,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['n_topup_point_onboard', 'mtd1_n_topup_point_onboard']</t>
+          <t>['n_topup_point', 'mtd1_n_topup_point']</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1922,13 +1918,15 @@
         <v>0.28</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.5</v>
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ZeroDivisionError</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2319,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['_date', 'amt_point_pay', 'amt_point_pay_sku', 'amt_point_pay_qr', 'amt_point_pay_pyw', 'amt_point_pay_pyw_rbh', 'amt_point_pay_qr_29', 'amt_point_pay_qr_30', 'amt_point_pay_qr_cs']</t>
+          <t>['_date', 'amt_point_pay', 'ncust_pointx_financial']</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -2337,10 +2335,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="L37" t="n">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38">
@@ -2421,7 +2419,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['n_purchase_p_cc']</t>
+          <t>['n_point_payment_p_cc']</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2434,15 +2432,13 @@
         <v>0.34</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>ZeroDivisionError</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2947,7 +2943,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['event_date', 'customer_id', 'event_name']</t>
+          <t>['event_date', 'customer_id']</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2964,13 +2960,15 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.34</v>
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ZeroDivisionError</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3737,7 +3735,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['event_timestamp', 'user_pseudo_id']</t>
+          <t>['event_timestamp', 'user_pseudo_id', 'engagement_time_msec']</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -3750,13 +3748,13 @@
         <v>0.34</v>
       </c>
       <c r="J64" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="K64" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L64" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="65">
@@ -4203,7 +4201,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -4221,10 +4219,10 @@
         <v>0.5</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L73" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
@@ -4255,7 +4253,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -4270,13 +4268,13 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L74" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="75">
@@ -4307,7 +4305,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -4325,10 +4323,10 @@
         <v>0.5</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -4359,7 +4357,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -4376,13 +4374,13 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="K76" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L76" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="77">
@@ -4413,7 +4411,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -4428,13 +4426,13 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="K77" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="78">
@@ -4465,7 +4463,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -4482,13 +4480,13 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="79">
@@ -4519,7 +4517,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['event_name', 'event_date']</t>
+          <t>['event_name', 'event_date', 'user_pseudo_id']</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -4537,10 +4535,10 @@
         <v>0.5</v>
       </c>
       <c r="K79" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="80">
@@ -4571,7 +4569,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -4623,7 +4621,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -4675,7 +4673,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -4727,7 +4725,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -4779,7 +4777,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -4833,7 +4831,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -4887,7 +4885,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -4939,7 +4937,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -4991,7 +4989,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -5043,7 +5041,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['user_pseudo_id', 'event_name', 'event_date']</t>
+          <t>['user_pseudo_id', 'event_date', 'event_name']</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -5675,7 +5673,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['event_date', 'user_pseudo_id']</t>
+          <t>['event_date', 'user_pseudo_id', 'event_name']</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -5695,10 +5693,10 @@
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L101" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102">
@@ -5781,7 +5779,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['event_date', 'user_pseudo_id']</t>
+          <t>['event_date', 'user_pseudo_id', 'event_name']</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -5801,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104">
@@ -5937,7 +5935,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>['event_name', 'user_pseudo_id']</t>
+          <t>['event_date', 'user_pseudo_id', 'event_name']</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -5953,10 +5951,10 @@
         <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
